--- a/application/libraries/excel/template.xlsx
+++ b/application/libraries/excel/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bmnku\application\libraries\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sibaper\application\libraries\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$1:$15</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -385,18 +388,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,6 +445,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,9 +455,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:N7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,16 +917,16 @@
       <c r="AI4" s="6"/>
     </row>
     <row r="5" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="4"/>
       <c r="J5" s="2"/>
       <c r="K5" s="27" t="s">
@@ -932,24 +935,24 @@
       <c r="L5" s="27"/>
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
-      <c r="Z5" s="37" t="s">
+      <c r="Z5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
       <c r="AC5" s="27" t="s">
         <v>6</v>
       </c>
@@ -961,14 +964,14 @@
       <c r="AI5" s="6"/>
     </row>
     <row r="6" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="4"/>
       <c r="J6" s="2"/>
       <c r="K6" s="27" t="s">
@@ -1080,16 +1083,16 @@
         <v>10</v>
       </c>
       <c r="AC8" s="22"/>
-      <c r="AD8" s="38" t="s">
+      <c r="AD8" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38" t="s">
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="AI8" s="38"/>
+      <c r="AI8" s="35"/>
     </row>
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
@@ -1121,12 +1124,12 @@
       <c r="AA9" s="33"/>
       <c r="AB9" s="23"/>
       <c r="AC9" s="24"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
     </row>
     <row r="10" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
@@ -1134,10 +1137,10 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="13" t="s">
         <v>15</v>
       </c>
@@ -1176,18 +1179,18 @@
         <v>22</v>
       </c>
       <c r="Y10" s="13"/>
-      <c r="Z10" s="17" t="s">
+      <c r="Z10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="AA10" s="19"/>
+      <c r="AA10" s="18"/>
       <c r="AB10" s="25"/>
       <c r="AC10" s="26"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
     </row>
     <row r="11" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -1237,12 +1240,12 @@
         <v>0</v>
       </c>
       <c r="Y11" s="13"/>
-      <c r="Z11" s="17">
+      <c r="Z11" s="16">
         <v>0</v>
       </c>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="19"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="18"/>
       <c r="AD11" s="13">
         <v>0</v>
       </c>
@@ -1255,180 +1258,180 @@
       <c r="AI11" s="13"/>
     </row>
     <row r="12" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
-      <c r="AG12" s="18"/>
-      <c r="AH12" s="18"/>
-      <c r="AI12" s="19"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="18"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16" t="s">
+      <c r="M13" s="19"/>
+      <c r="N13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16" t="s">
+      <c r="O13" s="19"/>
+      <c r="P13" s="19" t="s">
         <v>30</v>
       </c>
       <c r="Q13" s="20"/>
-      <c r="R13" s="16" t="s">
+      <c r="R13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16" t="s">
+      <c r="T13" s="19"/>
+      <c r="U13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16" t="s">
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16" t="s">
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16" t="s">
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16" t="s">
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AI13" s="16"/>
+      <c r="AI13" s="19"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
     </row>
     <row r="16" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1448,20 +1451,20 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
-      <c r="R16" s="17" t="s">
+      <c r="R16" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
       <c r="AD16" s="13"/>
       <c r="AE16" s="13"/>
       <c r="AF16" s="13"/>
@@ -2359,10 +2362,10 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="AH13:AI15"/>
-    <mergeCell ref="X13:AC15"/>
-    <mergeCell ref="AD13:AE15"/>
-    <mergeCell ref="AF13:AG15"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="AB11:AC11"/>
     <mergeCell ref="AB8:AC10"/>
     <mergeCell ref="Z10:AA10"/>
@@ -2371,13 +2374,15 @@
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="X11:Y11"/>
     <mergeCell ref="U11:W11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
     <mergeCell ref="R13:R15"/>
     <mergeCell ref="S13:T15"/>
     <mergeCell ref="U13:W15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="R16:AC16"/>
     <mergeCell ref="A12:AI12"/>
     <mergeCell ref="A13:A15"/>
@@ -2390,18 +2395,10 @@
     <mergeCell ref="AD16:AE16"/>
     <mergeCell ref="AF16:AG16"/>
     <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AH13:AI15"/>
+    <mergeCell ref="X13:AC15"/>
+    <mergeCell ref="AD13:AE15"/>
+    <mergeCell ref="AF13:AG15"/>
     <mergeCell ref="AD17:AE17"/>
     <mergeCell ref="AF17:AG17"/>
     <mergeCell ref="AH17:AI17"/>
@@ -2423,14 +2420,9 @@
     <mergeCell ref="X17:AC17"/>
     <mergeCell ref="U18:W18"/>
     <mergeCell ref="X18:AC18"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="X21:AC21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
     <mergeCell ref="AH19:AI19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
@@ -2447,6 +2439,23 @@
     <mergeCell ref="X19:AC19"/>
     <mergeCell ref="AD19:AE19"/>
     <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="X21:AC21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="U23:W23"/>
     <mergeCell ref="X23:AC23"/>
     <mergeCell ref="AD21:AE21"/>
@@ -2468,16 +2477,6 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AF25:AG25"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:K24"/>
@@ -2486,9 +2485,21 @@
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="U24:W24"/>
     <mergeCell ref="X24:AC24"/>
-    <mergeCell ref="AD26:AE26"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:AC26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:K27"/>
@@ -2498,16 +2509,6 @@
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="U27:W27"/>
     <mergeCell ref="X27:AC27"/>
-    <mergeCell ref="AD27:AE27"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AH27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="AD24:AE24"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AH24:AI24"/>
-    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="F29:K29"/>
@@ -2532,10 +2533,6 @@
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:AC26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
     <mergeCell ref="AH28:AI28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="S28:T28"/>
@@ -2548,6 +2545,12 @@
     <mergeCell ref="U29:W29"/>
     <mergeCell ref="X29:AC29"/>
     <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="AD26:AE26"/>
+    <mergeCell ref="AF26:AG26"/>
+    <mergeCell ref="AH26:AI26"/>
+    <mergeCell ref="AD27:AE27"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AH27:AI27"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:K31"/>
@@ -2676,7 +2679,7 @@
     <mergeCell ref="AF23:AG23"/>
     <mergeCell ref="F23:K23"/>
   </mergeCells>
-  <pageMargins left="0.22159090909090909" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.22159090909090901" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
   <webPublishItems count="1">
     <webPublishItem id="1943" divId="Book1_1943" sourceType="range" sourceRef="A1:AI39" destinationFile="C:\Users\hasna\Desktop\Book1.htm"/>
